--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/AB/15/seed2/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/AB/15/seed2/result_data_RandomForest.xlsx
@@ -465,7 +465,7 @@
         <v>-20.51</v>
       </c>
       <c r="B2" t="n">
-        <v>8.543999999999999</v>
+        <v>8.428299999999995</v>
       </c>
       <c r="C2" t="n">
         <v>-10.94</v>
@@ -479,7 +479,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-22.03780000000001</v>
+        <v>-22.07480000000001</v>
       </c>
       <c r="B3" t="n">
         <v>4.03</v>
@@ -666,7 +666,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>-21.79219999999999</v>
+        <v>-21.8609</v>
       </c>
       <c r="B14" t="n">
         <v>4.04</v>
@@ -785,7 +785,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>-20.21399999999998</v>
+        <v>-20.28309999999999</v>
       </c>
       <c r="B21" t="n">
         <v>9.52</v>
@@ -819,7 +819,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>-20.28869999999998</v>
+        <v>-20.25849999999997</v>
       </c>
       <c r="B23" t="n">
         <v>7.87</v>
@@ -853,10 +853,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>-21.6882</v>
+        <v>-21.7339</v>
       </c>
       <c r="B25" t="n">
-        <v>5.680700000000002</v>
+        <v>5.493400000000001</v>
       </c>
       <c r="C25" t="n">
         <v>-11.07</v>
@@ -870,7 +870,7 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>-21.02559999999996</v>
+        <v>-21.02889999999997</v>
       </c>
       <c r="B26" t="n">
         <v>6.56</v>
@@ -890,7 +890,7 @@
         <v>-21.86</v>
       </c>
       <c r="B27" t="n">
-        <v>6.3089</v>
+        <v>6.140999999999999</v>
       </c>
       <c r="C27" t="n">
         <v>-11.92</v>
@@ -921,7 +921,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>-20.69799999999999</v>
+        <v>-20.63919999999998</v>
       </c>
       <c r="B29" t="n">
         <v>7.52</v>
@@ -958,7 +958,7 @@
         <v>-21.76</v>
       </c>
       <c r="B31" t="n">
-        <v>5.1896</v>
+        <v>5.557099999999999</v>
       </c>
       <c r="C31" t="n">
         <v>-11.3</v>
@@ -1094,7 +1094,7 @@
         <v>-18.76</v>
       </c>
       <c r="B39" t="n">
-        <v>9.562600000000005</v>
+        <v>9.610600000000003</v>
       </c>
       <c r="C39" t="n">
         <v>-10.58</v>
@@ -1247,7 +1247,7 @@
         <v>-21.86</v>
       </c>
       <c r="B48" t="n">
-        <v>5.208500000000003</v>
+        <v>5.187100000000003</v>
       </c>
       <c r="C48" t="n">
         <v>-10.86</v>
@@ -1298,7 +1298,7 @@
         <v>-22</v>
       </c>
       <c r="B51" t="n">
-        <v>5.747299999999999</v>
+        <v>5.542799999999996</v>
       </c>
       <c r="C51" t="n">
         <v>-13.17</v>
@@ -1315,7 +1315,7 @@
         <v>-21.69</v>
       </c>
       <c r="B52" t="n">
-        <v>5.2642</v>
+        <v>5.273499999999998</v>
       </c>
       <c r="C52" t="n">
         <v>-14.35</v>
@@ -1329,7 +1329,7 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>-21.912</v>
+        <v>-21.9543</v>
       </c>
       <c r="B53" t="n">
         <v>5.82</v>
@@ -1366,7 +1366,7 @@
         <v>-24</v>
       </c>
       <c r="B55" t="n">
-        <v>5.9339</v>
+        <v>5.689799999999996</v>
       </c>
       <c r="C55" t="n">
         <v>-15.79</v>
@@ -1383,7 +1383,7 @@
         <v>-21.95</v>
       </c>
       <c r="B56" t="n">
-        <v>4.987299999999997</v>
+        <v>4.889899999999998</v>
       </c>
       <c r="C56" t="n">
         <v>-13.63</v>
@@ -1397,10 +1397,10 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>-22.3013</v>
+        <v>-22.33980000000001</v>
       </c>
       <c r="B57" t="n">
-        <v>4.780099999999996</v>
+        <v>4.759999999999994</v>
       </c>
       <c r="C57" t="n">
         <v>-15.01</v>
@@ -1431,7 +1431,7 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>-22.18120000000001</v>
+        <v>-22.1306</v>
       </c>
       <c r="B59" t="n">
         <v>4.58</v>
@@ -1601,7 +1601,7 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>-21.67659999999999</v>
+        <v>-21.62219999999999</v>
       </c>
       <c r="B69" t="n">
         <v>4.98</v>
@@ -1672,7 +1672,7 @@
         <v>-20.59</v>
       </c>
       <c r="B73" t="n">
-        <v>8.455199999999998</v>
+        <v>8.440699999999994</v>
       </c>
       <c r="C73" t="n">
         <v>-15.02</v>
@@ -1771,7 +1771,7 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>-20.4178</v>
+        <v>-20.2572</v>
       </c>
       <c r="B79" t="n">
         <v>8.949999999999999</v>
@@ -1839,7 +1839,7 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>-21.9855</v>
+        <v>-21.9952</v>
       </c>
       <c r="B83" t="n">
         <v>5.84</v>
@@ -1944,7 +1944,7 @@
         <v>-21.45</v>
       </c>
       <c r="B89" t="n">
-        <v>4.677499999999995</v>
+        <v>4.641599999999995</v>
       </c>
       <c r="C89" t="n">
         <v>-10.11</v>
@@ -1961,7 +1961,7 @@
         <v>-21.82</v>
       </c>
       <c r="B90" t="n">
-        <v>5.7046</v>
+        <v>5.350600000000002</v>
       </c>
       <c r="C90" t="n">
         <v>-12.06</v>
@@ -1975,7 +1975,7 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>-21.44010000000002</v>
+        <v>-21.46570000000002</v>
       </c>
       <c r="B91" t="n">
         <v>4.28</v>
@@ -1995,7 +1995,7 @@
         <v>-21.6</v>
       </c>
       <c r="B92" t="n">
-        <v>4.747199999999999</v>
+        <v>4.765699999999999</v>
       </c>
       <c r="C92" t="n">
         <v>-9.49</v>
@@ -2009,7 +2009,7 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>-20.87649999999998</v>
+        <v>-20.71349999999998</v>
       </c>
       <c r="B93" t="n">
         <v>7.55</v>
